--- a/data/yearly/2099.xlsx
+++ b/data/yearly/2099.xlsx
@@ -587,6 +587,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="B17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+kebab</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -2808,6 +2832,30 @@
           </rPr>
           <t xml:space="preserve">
 market</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+kawa</t>
         </r>
       </text>
     </comment>
@@ -7054,7 +7102,7 @@
   <dimension ref="A1:AA140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7083,7 +7131,7 @@
       </c>
       <c r="B1" s="31">
         <f>E1-A9</f>
-        <v>1990.5</v>
+        <v>1975.5</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>11</v>
@@ -7110,7 +7158,7 @@
       </c>
       <c r="B2" s="32">
         <f>E2-A9</f>
-        <v>1855.5</v>
+        <v>1840.5</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="12" t="s">
@@ -7243,7 +7291,7 @@
     <row r="6" spans="1:27" ht="15.75" thickBot="1">
       <c r="A6" s="28">
         <f>SUM(B9+C9+D9+F9+E9+G9)</f>
-        <v>1890.5</v>
+        <v>1905.5</v>
       </c>
       <c r="B6" s="29">
         <f>SUM(H9+J9+K9+I9+L9+N9+P9+O9)</f>
@@ -7302,35 +7350,35 @@
       </c>
       <c r="B8" s="6">
         <f t="shared" ref="B8:T8" si="0">100*B9/$A$9</f>
-        <v>25.337206889396139</v>
+        <v>25.799133842029285</v>
       </c>
       <c r="C8" s="6">
         <f t="shared" si="0"/>
-        <v>37.35214774849554</v>
+        <v>37.12105588781192</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>8.0514629591201494</v>
+        <v>8.0016498247061243</v>
       </c>
       <c r="E8" s="6">
         <f t="shared" ref="E8:K8" si="1">100*E9/$A$9</f>
-        <v>0.99605727329321436</v>
+        <v>0.98989482367498449</v>
       </c>
       <c r="F8" s="6">
         <f t="shared" si="1"/>
-        <v>4.8557792073044199</v>
+        <v>4.8257372654155493</v>
       </c>
       <c r="G8" s="6">
         <f t="shared" si="1"/>
-        <v>1.8676073874247769</v>
+        <v>1.856052794390596</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" si="1"/>
-        <v>5.1462959120149412</v>
+        <v>5.1144565889874203</v>
       </c>
       <c r="I8" s="6">
         <f t="shared" si="1"/>
-        <v>14.525835235526042</v>
+        <v>14.435966178593524</v>
       </c>
       <c r="J8" s="6">
         <f t="shared" si="1"/>
@@ -7346,7 +7394,7 @@
       </c>
       <c r="M8" s="6">
         <f t="shared" ref="M8:S8" si="2">100*M9/$A$9</f>
-        <v>0.83004772774434532</v>
+        <v>0.82491235306248711</v>
       </c>
       <c r="N8" s="6">
         <f t="shared" si="2"/>
@@ -7358,7 +7406,7 @@
       </c>
       <c r="P8" s="6">
         <f t="shared" si="2"/>
-        <v>1.0375596596804317</v>
+        <v>1.0311404413281089</v>
       </c>
       <c r="Q8" s="6">
         <f t="shared" si="2"/>
@@ -7380,11 +7428,11 @@
     <row r="9" spans="1:27" ht="15.75" thickBot="1">
       <c r="A9" s="5">
         <f>SUM(B9:Z9)</f>
-        <v>2409.5</v>
+        <v>2424.5</v>
       </c>
       <c r="B9" s="16">
         <f>SUM(B11:B706)</f>
-        <v>610.5</v>
+        <v>625.5</v>
       </c>
       <c r="C9" s="16">
         <f t="shared" ref="C9:R9" si="3">SUM(C11:C706)</f>
@@ -7707,7 +7755,9 @@
       <c r="A17" s="13">
         <v>7</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="19">
+        <v>15</v>
+      </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
@@ -21227,7 +21277,7 @@
   <dimension ref="A1:AA140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21256,7 +21306,7 @@
       </c>
       <c r="B1" s="31">
         <f>E1-A9</f>
-        <v>1084</v>
+        <v>1064</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>11</v>
@@ -21283,7 +21333,7 @@
       </c>
       <c r="B2" s="32">
         <f>E2-A9</f>
-        <v>1109</v>
+        <v>1089</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="12" t="s">
@@ -21416,7 +21466,7 @@
     <row r="6" spans="1:27" ht="15.75" thickBot="1">
       <c r="A6" s="28">
         <f>SUM(B9+C9+D9+F9+E9+G9)</f>
-        <v>1979</v>
+        <v>1999</v>
       </c>
       <c r="B6" s="29">
         <f>SUM(H9+J9+K9+I9+L9+N9+P9+O9)</f>
@@ -21475,15 +21525,15 @@
       </c>
       <c r="B8" s="6">
         <f t="shared" ref="B8:T8" si="0">100*B9/$A$9</f>
-        <v>20.559572461490099</v>
+        <v>21.05592002499219</v>
       </c>
       <c r="C8" s="6">
         <f t="shared" si="0"/>
-        <v>28.292989625903804</v>
+        <v>28.116213683223993</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>5.2813580635020436</v>
+        <v>5.2483598875351456</v>
       </c>
       <c r="E8" s="6">
         <f t="shared" si="0"/>
@@ -21491,19 +21541,19 @@
       </c>
       <c r="F8" s="6">
         <f t="shared" si="0"/>
-        <v>6.0358377868594779</v>
+        <v>5.998125585754452</v>
       </c>
       <c r="G8" s="6">
         <f t="shared" si="0"/>
-        <v>2.0433825840930524</v>
+        <v>2.0306154326772883</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" si="0"/>
-        <v>3.6780886513674944</v>
+        <v>3.6551077788191191</v>
       </c>
       <c r="I8" s="6">
         <f t="shared" si="0"/>
-        <v>10.374096196164729</v>
+        <v>10.309278350515465</v>
       </c>
       <c r="J8" s="6">
         <f t="shared" si="0"/>
@@ -21511,11 +21561,11 @@
       </c>
       <c r="K8" s="6">
         <f t="shared" si="0"/>
-        <v>18.861993083935868</v>
+        <v>18.744142455482663</v>
       </c>
       <c r="L8" s="6">
         <f t="shared" si="0"/>
-        <v>2.8292989625903804</v>
+        <v>2.8116213683223994</v>
       </c>
       <c r="M8" s="6">
         <f t="shared" si="0"/>
@@ -21523,11 +21573,11 @@
       </c>
       <c r="N8" s="6">
         <f t="shared" si="0"/>
-        <v>0.47154982709839671</v>
+        <v>0.46860356138706655</v>
       </c>
       <c r="O8" s="6">
         <f t="shared" si="0"/>
-        <v>1.5718327569946557</v>
+        <v>1.5620118712902218</v>
       </c>
       <c r="P8" s="6">
         <f t="shared" si="0"/>
@@ -21553,11 +21603,11 @@
     <row r="9" spans="1:27" ht="15.75" thickBot="1">
       <c r="A9" s="5">
         <f>SUM(B9:Z9)</f>
-        <v>3181</v>
+        <v>3201</v>
       </c>
       <c r="B9" s="16">
         <f>SUM(B11:B706)</f>
-        <v>654</v>
+        <v>674</v>
       </c>
       <c r="C9" s="16">
         <f t="shared" ref="C9:T9" si="1">SUM(C11:C706)</f>
@@ -21890,7 +21940,9 @@
       <c r="A17" s="13">
         <v>7</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="19">
+        <v>20</v>
+      </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
